--- a/frontend/cuckoo/bounds.xlsx
+++ b/frontend/cuckoo/bounds.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\repo\libPSI\frontend\cuckoo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\libPSI_private\frontend\cuckoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14383" windowHeight="8357" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,32 +120,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2213,7 +2214,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$16</c15:sqref>
@@ -2244,7 +2245,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$4:$AK$4</c15:sqref>
@@ -2349,7 +2350,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$16:$AK$16</c15:sqref>
@@ -2408,7 +2409,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000049-1C00-4023-9B71-459D26B437D9}"/>
                   </c:ext>
@@ -2439,7 +2440,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$56:$AY$56</c15:sqref>
@@ -2547,7 +2548,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$66:$AY$66</c15:sqref>
@@ -2654,7 +2655,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000004A-1C00-4023-9B71-459D26B437D9}"/>
                   </c:ext>
@@ -2685,7 +2686,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$56:$AY$56</c15:sqref>
@@ -2793,7 +2794,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$65:$AY$65</c15:sqref>
@@ -2900,7 +2901,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000004B-1C00-4023-9B71-459D26B437D9}"/>
                   </c:ext>
@@ -2931,7 +2932,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$56:$AY$56</c15:sqref>
@@ -3039,7 +3040,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$58:$AY$58</c15:sqref>
@@ -3146,7 +3147,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000004C-1C00-4023-9B71-459D26B437D9}"/>
                   </c:ext>
@@ -7612,49 +7613,82 @@
                   <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.38</c:v>
+                  <c:v>6.383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.94</c:v>
+                  <c:v>6.9349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.48</c:v>
+                  <c:v>7.4749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.93</c:v>
+                  <c:v>7.9320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3699999999999992</c:v>
+                  <c:v>8.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7899999999999991</c:v>
+                  <c:v>8.7910000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.52</c:v>
+                  <c:v>9.5220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.86</c:v>
+                  <c:v>9.8629999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.15</c:v>
+                  <c:v>10.151999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.44</c:v>
+                  <c:v>10.441000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.7</c:v>
+                  <c:v>10.711</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10.977</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.23</c:v>
+                  <c:v>11.231</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.48</c:v>
+                  <c:v>11.487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.073</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.445</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.804</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.423999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7804,52 +7838,61 @@
                   <c:v>6.0481100000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9567300000000003</c:v>
+                  <c:v>6.9569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7479199999999997</c:v>
+                  <c:v>7.7480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4435199999999995</c:v>
+                  <c:v>8.4440000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0699100000000001</c:v>
+                  <c:v>9.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.63063</c:v>
+                  <c:v>9.6310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.1282</c:v>
+                  <c:v>10.128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5588</c:v>
+                  <c:v>10.558999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.974299999999999</c:v>
+                  <c:v>10.974</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.376899999999999</c:v>
+                  <c:v>11.377000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.708399999999999</c:v>
+                  <c:v>11.708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.042899999999999</c:v>
+                  <c:v>12.042999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.6264</c:v>
+                  <c:v>12.625999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.857100000000001</c:v>
+                  <c:v>12.856999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.1638</c:v>
+                  <c:v>13.164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.3443</c:v>
+                  <c:v>13.343999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.634</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.782</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.061999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7999,52 +8042,61 @@
                   <c:v>7.4613399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5848399999999998</c:v>
+                  <c:v>8.5850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4995999999999992</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.278499999999999</c:v>
+                  <c:v>10.278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.9223</c:v>
+                  <c:v>10.922000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.486499999999999</c:v>
+                  <c:v>11.487</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12.026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.5532</c:v>
+                  <c:v>12.553000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.9277</c:v>
+                  <c:v>12.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13.331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.6478</c:v>
+                  <c:v>13.648</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.9971</c:v>
+                  <c:v>13.997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.2943</c:v>
+                  <c:v>14.294</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.5487</c:v>
+                  <c:v>14.548999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.8126</c:v>
+                  <c:v>14.813000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>15.272</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.4339</c:v>
+                  <c:v>15.433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.523999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.835000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.989000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8181,6 +8233,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8316,6 +8437,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8451,6 +8641,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8586,6 +8818,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8865,6 +9106,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9009,6 +9319,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9156,6 +9535,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9303,6 +9751,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9452,6 +9942,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9736,6 +10235,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9871,6 +10439,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10006,6 +10643,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10141,6 +10820,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10423,6 +11111,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10570,6 +11327,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10708,6 +11534,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10846,6 +11741,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10984,6 +11921,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11539,6 +12485,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.694</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2685</c:v>
                 </c:pt>
@@ -11644,6 +12599,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>4.3526800000000003</c:v>
                 </c:pt>
@@ -11749,6 +12716,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>6.0853299999999999</c:v>
                 </c:pt>
@@ -11854,6 +12833,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>7.4613399999999999</c:v>
                 </c:pt>
@@ -11959,11 +12950,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5848399999999998</c:v>
+                  <c:v>8.5850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9567300000000003</c:v>
+                  <c:v>6.9569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.75</c:v>
@@ -12064,14 +13064,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.404</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4995999999999992</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7479199999999997</c:v>
+                  <c:v>7.7480000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.38</c:v>
+                  <c:v>6.383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12175,14 +13184,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.222</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.278499999999999</c:v>
+                  <c:v>10.278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4435199999999995</c:v>
+                  <c:v>8.4440000000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.94</c:v>
+                  <c:v>6.9349999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12286,14 +13304,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.9223</c:v>
+                  <c:v>10.922000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0699100000000001</c:v>
+                  <c:v>9.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.48</c:v>
+                  <c:v>7.4749999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12397,14 +13424,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.448</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.486499999999999</c:v>
+                  <c:v>11.487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.63063</c:v>
+                  <c:v>9.6310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.93</c:v>
+                  <c:v>7.9320000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12508,14 +13544,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>12.026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.1282</c:v>
+                  <c:v>10.128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3699999999999992</c:v>
+                  <c:v>8.3719999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12619,14 +13664,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.516</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5532</c:v>
+                  <c:v>12.553000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5588</c:v>
+                  <c:v>10.558999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7899999999999991</c:v>
+                  <c:v>8.7910000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12730,11 +13784,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.79</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.9277</c:v>
+                  <c:v>12.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.974299999999999</c:v>
+                  <c:v>10.974</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9.17</c:v>
@@ -12844,14 +13907,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.36</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>13.331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.376899999999999</c:v>
+                  <c:v>11.377000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.52</c:v>
+                  <c:v>9.5220000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12958,14 +14030,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="5">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.528</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.6478</c:v>
+                  <c:v>13.648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.708399999999999</c:v>
+                  <c:v>11.708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.86</c:v>
+                  <c:v>9.8629999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13072,14 +14153,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.907</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.9971</c:v>
+                  <c:v>13.997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.042899999999999</c:v>
+                  <c:v>12.042999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.15</c:v>
+                  <c:v>10.151999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13186,14 +14273,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.2943</c:v>
+                  <c:v>14.294</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12.308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.44</c:v>
+                  <c:v>10.441000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13300,14 +14393,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.651</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.5487</c:v>
+                  <c:v>14.548999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.6264</c:v>
+                  <c:v>12.625999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.7</c:v>
+                  <c:v>10.711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13414,11 +14513,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.84</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.8126</c:v>
+                  <c:v>14.813000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.857100000000001</c:v>
+                  <c:v>12.856999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.977</c:v>
@@ -13525,14 +14630,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.105</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>15.272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.1638</c:v>
+                  <c:v>13.164</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.23</c:v>
+                  <c:v>11.231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13636,14 +14747,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.4339</c:v>
+                  <c:v>15.433999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.3443</c:v>
+                  <c:v>13.343999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.48</c:v>
+                  <c:v>11.487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13747,6 +14864,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.523999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.667999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13849,6 +14981,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.835000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.881</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14375,6 +15522,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14510,6 +15726,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14645,6 +15930,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14780,6 +16107,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15059,6 +16395,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15194,6 +16599,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15329,6 +16803,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15464,6 +17007,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15599,6 +17184,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16181,6 +17775,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16316,6 +17979,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16451,6 +18183,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16586,6 +18360,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17060,6 +18843,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17195,6 +19047,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17330,6 +19251,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17465,6 +19455,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17600,6 +19632,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18219,6 +20260,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18354,6 +20464,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18489,6 +20668,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18624,6 +20845,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18903,6 +21133,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19038,6 +21337,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19173,6 +21541,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19308,6 +21745,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19443,6 +21922,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20013,6 +22501,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20148,6 +22705,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20283,6 +22909,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20418,6 +23086,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20865,6 +23542,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21000,6 +23746,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.507999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21135,6 +23950,75 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.062999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.193000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21270,6 +24154,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-2.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8610000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.751999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21405,6 +24331,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -24677,16 +27612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>299096</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>127603</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9204</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>279582</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>96711</xdr:rowOff>
+      <xdr:colOff>602603</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24713,16 +27648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>130152</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>145298</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>378631</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>79037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>170385</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>61528</xdr:rowOff>
+      <xdr:rowOff>185767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24754,16 +27689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>217716</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146721</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>318568</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>420433</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>96</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>186710</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25206,67 +28141,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AY76"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView topLeftCell="F40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.4609375" customWidth="1"/>
-    <col min="9" max="9" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.765625" customWidth="1"/>
-    <col min="14" max="14" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.4609375" customWidth="1"/>
-    <col min="17" max="18" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="Q2" s="3" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="Q3" s="3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>2</v>
       </c>
@@ -25397,7 +28332,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -25417,7 +28352,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -25437,7 +28372,7 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -25457,7 +28392,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -25498,7 +28433,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -25542,7 +28477,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -25592,7 +28527,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -25636,7 +28571,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -25686,7 +28621,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -25737,7 +28672,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -25787,7 +28722,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F15">
         <f>F14-2</f>
         <v>8</v>
@@ -25838,7 +28773,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F16">
         <f t="shared" ref="F16:F18" si="3">F15-2</f>
         <v>6</v>
@@ -25889,7 +28824,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="17" spans="6:38" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -25908,7 +28843,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="18" spans="6:38" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:38" x14ac:dyDescent="0.25">
       <c r="F18">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -25920,17 +28855,17 @@
         <v>7.1139999999999999</v>
       </c>
     </row>
-    <row r="23" spans="6:38" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:38" x14ac:dyDescent="0.25">
       <c r="AA23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="6:38" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:38" x14ac:dyDescent="0.25">
       <c r="AA24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="56" spans="11:51" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
         <v>8</v>
       </c>
@@ -26067,7 +29002,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="57" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K57">
         <f t="shared" ref="K57:K65" si="31">K58+2</f>
         <v>24</v>
@@ -26077,7 +29012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="58" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K58">
         <f t="shared" si="31"/>
         <v>22</v>
@@ -26227,7 +29162,7 @@
         <v>20.899999999309472</v>
       </c>
     </row>
-    <row r="59" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="59" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K59">
         <f t="shared" si="31"/>
         <v>20</v>
@@ -26377,7 +29312,7 @@
         <v>22.899999810485042</v>
       </c>
     </row>
-    <row r="60" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="60" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K60">
         <f t="shared" si="31"/>
         <v>18</v>
@@ -26527,7 +29462,7 @@
         <v>24.89997614790758</v>
       </c>
     </row>
-    <row r="61" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="61" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K61">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -26677,7 +29612,7 @@
         <v>26.898632253913377</v>
       </c>
     </row>
-    <row r="62" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="62" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K62">
         <f t="shared" si="31"/>
         <v>14</v>
@@ -26827,7 +29762,7 @@
         <v>28.864271309911317</v>
       </c>
     </row>
-    <row r="63" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="63" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K63">
         <f t="shared" si="31"/>
         <v>12</v>
@@ -26977,7 +29912,7 @@
         <v>30.46718190199914</v>
       </c>
     </row>
-    <row r="64" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="64" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K64">
         <f t="shared" si="31"/>
         <v>10</v>
@@ -27127,7 +30062,7 @@
         <v>30.313863058630034</v>
       </c>
     </row>
-    <row r="65" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="65" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K65">
         <f t="shared" si="31"/>
         <v>8</v>
@@ -27277,7 +30212,7 @@
         <v>26.15799269222002</v>
       </c>
     </row>
-    <row r="66" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="66" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K66">
         <f>K67+2</f>
         <v>6</v>
@@ -27427,7 +30362,7 @@
         <v>17.108447978336045</v>
       </c>
     </row>
-    <row r="67" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="67" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K67">
         <v>4</v>
       </c>
@@ -27575,7 +30510,7 @@
         <v>6.4615986846437252</v>
       </c>
     </row>
-    <row r="68" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="68" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K68">
         <v>2</v>
       </c>
@@ -27723,7 +30658,7 @@
         <v>0.6410309348218215</v>
       </c>
     </row>
-    <row r="69" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="69" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K69">
         <v>0</v>
       </c>
@@ -27742,7 +30677,7 @@
         <v>-0.20080064080639559</v>
       </c>
     </row>
-    <row r="74" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="74" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K74" t="s">
         <v>5</v>
       </c>
@@ -27757,7 +30692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="75" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K75" t="s">
         <v>3</v>
       </c>
@@ -27771,7 +30706,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="76" spans="11:51" x14ac:dyDescent="0.4">
+    <row r="76" spans="11:51" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
         <v>4</v>
       </c>
@@ -27797,540 +30732,854 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL88"/>
+  <dimension ref="A2:CB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="2.69140625" customWidth="1"/>
-    <col min="5" max="5" width="9.23046875" customWidth="1"/>
-    <col min="6" max="6" width="5.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.4609375" customWidth="1"/>
-    <col min="9" max="9" width="6.84375" customWidth="1"/>
-    <col min="10" max="10" width="5.84375" customWidth="1"/>
-    <col min="11" max="11" width="4.84375" customWidth="1"/>
-    <col min="12" max="12" width="7.15234375" customWidth="1"/>
-    <col min="13" max="13" width="7.765625" customWidth="1"/>
-    <col min="14" max="14" width="4.84375" customWidth="1"/>
-    <col min="15" max="15" width="6.53515625" customWidth="1"/>
-    <col min="16" max="16" width="6.4609375" customWidth="1"/>
-    <col min="17" max="18" width="5.4609375" customWidth="1"/>
-    <col min="19" max="19" width="4.84375" customWidth="1"/>
-    <col min="20" max="20" width="5.84375" customWidth="1"/>
-    <col min="21" max="21" width="7.15234375" customWidth="1"/>
-    <col min="22" max="26" width="5.84375" customWidth="1"/>
-    <col min="27" max="28" width="4.84375" customWidth="1"/>
-    <col min="29" max="29" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="18" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" customWidth="1"/>
+    <col min="22" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="Q2" s="3" t="s">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="G3" s="3" t="s">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="E4" s="5" t="s">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f>G4+0.1</f>
         <v>2.1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f t="shared" ref="I4:AL4" si="0">H4+0.1</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <f t="shared" si="0"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <f t="shared" si="0"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <f t="shared" si="0"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <f t="shared" si="0"/>
         <v>3.100000000000001</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <f t="shared" si="0"/>
         <v>3.2000000000000011</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="3">
         <f t="shared" si="0"/>
         <v>3.3000000000000012</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <f t="shared" si="0"/>
         <v>3.4000000000000012</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="3">
         <f t="shared" si="0"/>
         <v>3.5000000000000013</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="3">
         <f t="shared" si="0"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="3">
         <f t="shared" si="0"/>
         <v>3.7000000000000015</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="3">
         <f t="shared" si="0"/>
         <v>3.8000000000000016</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="3">
         <f t="shared" si="0"/>
         <v>3.9000000000000017</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="3">
         <f t="shared" si="0"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="3">
         <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="3">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="3">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="3">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="3">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="3">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="3">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="3">
         <f t="shared" si="0"/>
         <v>4.7999999999999989</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4" s="3">
         <f t="shared" si="0"/>
         <v>4.8999999999999986</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4" s="3">
         <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4" s="3">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
       </c>
+      <c r="AM4" s="13">
+        <f>AL4+0.1</f>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="AN4" s="13">
+        <f t="shared" ref="AN4:CB4" si="1">AM4+0.1</f>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="AO4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="AP4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="AQ4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="AR4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="AS4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="AT4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="AU4" s="13">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="AV4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="AW4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="AX4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="AY4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="AZ4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="BA4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="BB4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="BC4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="BD4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="BE4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="BF4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="BG4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="BH4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="BI4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="BJ4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999893</v>
+      </c>
+      <c r="BK4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.599999999999989</v>
+      </c>
+      <c r="BL4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="BM4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999883</v>
+      </c>
+      <c r="BN4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.8999999999999879</v>
+      </c>
+      <c r="BO4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999876</v>
+      </c>
+      <c r="BP4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999872</v>
+      </c>
+      <c r="BQ4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999869</v>
+      </c>
+      <c r="BR4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999865</v>
+      </c>
+      <c r="BS4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999861</v>
+      </c>
+      <c r="BT4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.4999999999999858</v>
+      </c>
+      <c r="BU4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999854</v>
+      </c>
+      <c r="BV4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999851</v>
+      </c>
+      <c r="BW4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999847</v>
+      </c>
+      <c r="BX4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999844</v>
+      </c>
+      <c r="BY4" s="13">
+        <f t="shared" si="1"/>
+        <v>8.999999999999984</v>
+      </c>
+      <c r="BZ4" s="13">
+        <f t="shared" si="1"/>
+        <v>9.0999999999999837</v>
+      </c>
+      <c r="CA4" s="13">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999833</v>
+      </c>
+      <c r="CB4" s="13">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999829</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>28</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5">
+      <c r="E6" s="9"/>
+      <c r="F6" s="3">
         <v>26</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5">
+      <c r="E7" s="9"/>
+      <c r="F7" s="3">
         <v>24</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5">
+      <c r="E8" s="9"/>
+      <c r="F8" s="3">
         <v>22</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5">
+      <c r="E9" s="9"/>
+      <c r="F9" s="3">
         <v>20</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>2.093</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12.298999999999999</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5">
+      <c r="E10" s="9"/>
+      <c r="F10" s="3">
         <v>18</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
+      <c r="G10">
+        <v>-2.7210000000000001</v>
+      </c>
+      <c r="H10">
+        <v>3.915</v>
+      </c>
+      <c r="I10">
+        <v>8.8610000000000007</v>
+      </c>
+      <c r="J10">
+        <v>12.356</v>
+      </c>
+      <c r="K10">
+        <v>13.978</v>
+      </c>
+      <c r="L10">
+        <v>15.452999999999999</v>
+      </c>
+      <c r="M10">
+        <v>16.279</v>
+      </c>
+      <c r="N10">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="O10">
+        <v>17.492000000000001</v>
+      </c>
+      <c r="P10">
+        <v>17.956</v>
+      </c>
+      <c r="Q10">
+        <v>18.3</v>
+      </c>
+      <c r="R10">
+        <v>19</v>
+      </c>
+      <c r="S10">
+        <v>19.414999999999999</v>
+      </c>
+      <c r="T10">
+        <v>19.751999999999999</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5">
+      <c r="E11" s="9"/>
+      <c r="F11" s="3">
         <v>16</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
+      <c r="G11">
+        <v>0.217</v>
+      </c>
+      <c r="H11">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="I11">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="J11">
+        <v>10.904</v>
+      </c>
+      <c r="K11">
+        <v>12.371</v>
+      </c>
+      <c r="L11">
+        <v>13.361000000000001</v>
+      </c>
+      <c r="M11">
+        <v>14.145</v>
+      </c>
+      <c r="N11">
+        <v>14.83</v>
+      </c>
+      <c r="O11">
+        <v>15.488</v>
+      </c>
+      <c r="P11">
+        <v>16.062999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>16.5</v>
+      </c>
+      <c r="R11">
+        <v>16.966999999999999</v>
+      </c>
+      <c r="S11">
+        <v>17.010999999999999</v>
+      </c>
+      <c r="T11">
+        <v>17.524000000000001</v>
+      </c>
+      <c r="U11">
+        <v>18.141999999999999</v>
+      </c>
+      <c r="V11">
+        <v>18.245000000000001</v>
+      </c>
+      <c r="W11">
+        <v>18.356000000000002</v>
+      </c>
+      <c r="X11">
+        <v>18.715</v>
+      </c>
+      <c r="Y11">
+        <v>18.870999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>19.356000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="AB11">
+        <v>19.751999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>20.193000000000001</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5">
+      <c r="E12" s="9"/>
+      <c r="F12" s="3">
         <v>14</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
+      <c r="G12">
+        <v>1.694</v>
+      </c>
+      <c r="H12">
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="I12">
+        <v>7.4720000000000004</v>
+      </c>
+      <c r="J12">
+        <v>9.1859999999999999</v>
+      </c>
+      <c r="K12">
+        <v>10.430999999999999</v>
+      </c>
+      <c r="L12">
+        <v>11.404</v>
+      </c>
+      <c r="M12">
+        <v>12.222</v>
+      </c>
+      <c r="N12">
+        <v>12.856</v>
+      </c>
+      <c r="O12">
+        <v>13.448</v>
+      </c>
+      <c r="P12">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>14.516</v>
+      </c>
+      <c r="R12">
+        <v>14.79</v>
+      </c>
+      <c r="S12">
+        <v>15.36</v>
+      </c>
+      <c r="T12">
+        <v>15.528</v>
+      </c>
+      <c r="U12">
+        <v>15.907</v>
+      </c>
+      <c r="V12">
+        <v>16.356000000000002</v>
+      </c>
+      <c r="W12">
+        <v>16.651</v>
+      </c>
+      <c r="X12">
+        <v>16.84</v>
+      </c>
+      <c r="Y12">
+        <v>17.105</v>
+      </c>
+      <c r="Z12">
+        <v>17.524000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>17.475999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>18.023</v>
+      </c>
+      <c r="AC12">
+        <v>18.507999999999999</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5">
+      <c r="E13" s="9"/>
+      <c r="F13" s="3">
         <v>12</v>
       </c>
       <c r="G13">
@@ -28346,73 +31595,79 @@
         <v>7.4613399999999999</v>
       </c>
       <c r="K13">
-        <v>8.5848399999999998</v>
+        <v>8.5850000000000009</v>
       </c>
       <c r="L13">
-        <v>9.4995999999999992</v>
+        <v>9.5</v>
       </c>
       <c r="M13">
-        <v>10.278499999999999</v>
+        <v>10.278</v>
       </c>
       <c r="N13">
-        <v>10.9223</v>
+        <v>10.922000000000001</v>
       </c>
       <c r="O13">
-        <v>11.486499999999999</v>
+        <v>11.487</v>
       </c>
       <c r="P13">
         <v>12.026999999999999</v>
       </c>
       <c r="Q13">
-        <v>12.5532</v>
+        <v>12.553000000000001</v>
       </c>
       <c r="R13">
-        <v>12.9277</v>
+        <v>12.928000000000001</v>
       </c>
       <c r="S13">
         <v>13.331</v>
       </c>
       <c r="T13">
-        <v>13.6478</v>
+        <v>13.648</v>
       </c>
       <c r="U13">
-        <v>13.9971</v>
+        <v>13.997</v>
       </c>
       <c r="V13">
-        <v>14.2943</v>
+        <v>14.294</v>
       </c>
       <c r="W13">
-        <v>14.5487</v>
+        <v>14.548999999999999</v>
       </c>
       <c r="X13">
-        <v>14.8126</v>
+        <v>14.813000000000001</v>
       </c>
       <c r="Y13">
         <v>15.272</v>
       </c>
       <c r="Z13">
-        <v>15.4339</v>
-      </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
+        <v>15.433999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>15.523999999999999</v>
+      </c>
+      <c r="AB13">
+        <v>15.835000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>15.989000000000001</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5">
+      <c r="E14" s="9"/>
+      <c r="F14" s="3">
         <v>10</v>
       </c>
       <c r="G14">
@@ -28428,314 +31683,574 @@
         <v>6.0481100000000003</v>
       </c>
       <c r="K14">
-        <v>6.9567300000000003</v>
+        <v>6.9569999999999999</v>
       </c>
       <c r="L14">
-        <v>7.7479199999999997</v>
+        <v>7.7480000000000002</v>
       </c>
       <c r="M14">
-        <v>8.4435199999999995</v>
+        <v>8.4440000000000008</v>
       </c>
       <c r="N14">
-        <v>9.0699100000000001</v>
+        <v>9.07</v>
       </c>
       <c r="O14">
-        <v>9.63063</v>
+        <v>9.6310000000000002</v>
       </c>
       <c r="P14">
-        <v>10.1282</v>
+        <v>10.128</v>
       </c>
       <c r="Q14">
-        <v>10.5588</v>
+        <v>10.558999999999999</v>
       </c>
       <c r="R14">
-        <v>10.974299999999999</v>
+        <v>10.974</v>
       </c>
       <c r="S14">
-        <v>11.376899999999999</v>
+        <v>11.377000000000001</v>
       </c>
       <c r="T14">
-        <v>11.708399999999999</v>
+        <v>11.708</v>
       </c>
       <c r="U14">
-        <v>12.042899999999999</v>
+        <v>12.042999999999999</v>
       </c>
       <c r="V14">
         <v>12.308</v>
       </c>
       <c r="W14">
-        <v>12.6264</v>
+        <v>12.625999999999999</v>
       </c>
       <c r="X14">
-        <v>12.857100000000001</v>
+        <v>12.856999999999999</v>
       </c>
       <c r="Y14">
-        <v>13.1638</v>
+        <v>13.164</v>
       </c>
       <c r="Z14">
-        <v>13.3443</v>
-      </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
+        <v>13.343999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>13.634</v>
+      </c>
+      <c r="AB14">
+        <v>13.782</v>
+      </c>
+      <c r="AC14">
+        <v>14.061999999999999</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="E15" s="6"/>
-      <c r="F15" s="5">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="3">
         <f>F14-2</f>
         <v>8</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>2.6339999999999999</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>3.5</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>4.3289999999999997</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>5.0599999999999996</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>5.75</v>
       </c>
-      <c r="L15" s="5">
-        <v>6.38</v>
-      </c>
-      <c r="M15" s="5">
-        <v>6.94</v>
-      </c>
-      <c r="N15" s="5">
-        <v>7.48</v>
-      </c>
-      <c r="O15" s="5">
-        <v>7.93</v>
-      </c>
-      <c r="P15" s="5">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="L15">
+        <v>6.383</v>
+      </c>
+      <c r="M15">
+        <v>6.9349999999999996</v>
+      </c>
+      <c r="N15">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="O15">
+        <v>7.9320000000000004</v>
+      </c>
+      <c r="P15">
+        <v>8.3719999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>8.7910000000000004</v>
+      </c>
+      <c r="R15">
         <v>9.17</v>
       </c>
-      <c r="S15" s="7">
-        <v>9.52</v>
-      </c>
-      <c r="T15" s="7">
-        <v>9.86</v>
-      </c>
-      <c r="U15" s="7">
-        <v>10.15</v>
-      </c>
-      <c r="V15" s="7">
-        <v>10.44</v>
-      </c>
-      <c r="W15" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="X15" s="7">
+      <c r="S15">
+        <v>9.5220000000000002</v>
+      </c>
+      <c r="T15">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="U15">
+        <v>10.151999999999999</v>
+      </c>
+      <c r="V15">
+        <v>10.441000000000001</v>
+      </c>
+      <c r="W15">
+        <v>10.711</v>
+      </c>
+      <c r="X15">
         <v>10.977</v>
       </c>
-      <c r="Y15" s="7">
-        <v>11.23</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>11.48</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="Y15">
+        <v>11.231</v>
+      </c>
+      <c r="Z15">
+        <v>11.487</v>
+      </c>
+      <c r="AA15">
+        <v>11.667999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>11.881</v>
+      </c>
+      <c r="AC15">
+        <v>12.073</v>
+      </c>
+      <c r="AD15">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>12.445</v>
+      </c>
+      <c r="AF15">
+        <v>12.663</v>
+      </c>
+      <c r="AG15">
+        <v>12.804</v>
+      </c>
+      <c r="AH15">
+        <v>13.015000000000001</v>
+      </c>
+      <c r="AI15">
+        <v>13.172000000000001</v>
+      </c>
+      <c r="AJ15">
+        <v>13.361000000000001</v>
+      </c>
+      <c r="AK15">
+        <v>13.423999999999999</v>
+      </c>
+      <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="E16" s="6"/>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F18" si="1">F15-2</f>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F18" si="2">F15-2</f>
         <v>6</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="G16">
+        <v>2.9452400000000001</v>
+      </c>
+      <c r="H16">
+        <v>3.50075</v>
+      </c>
+      <c r="I16">
+        <v>4.0190000000000001</v>
+      </c>
+      <c r="J16">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="K16">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="L16">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="M16">
+        <v>5.9290000000000003</v>
+      </c>
+      <c r="N16">
+        <v>6.3029999999999999</v>
+      </c>
+      <c r="O16">
+        <v>6.7169999999999996</v>
+      </c>
+      <c r="P16">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>7.4130000000000003</v>
+      </c>
+      <c r="R16">
+        <v>7.71</v>
+      </c>
+      <c r="S16">
+        <v>7.99</v>
+      </c>
+      <c r="T16">
+        <v>8.3089999999999993</v>
+      </c>
+      <c r="U16">
+        <v>8.5559999999999992</v>
+      </c>
+      <c r="V16">
+        <v>8.8249999999999993</v>
+      </c>
+      <c r="W16">
+        <v>9.0630000000000006</v>
+      </c>
+      <c r="X16">
+        <v>9.2780000000000005</v>
+      </c>
+      <c r="Y16">
+        <v>9.5329999999999995</v>
+      </c>
+      <c r="Z16">
+        <v>9.7260000000000009</v>
+      </c>
+      <c r="AA16">
+        <v>9.9489999999999998</v>
+      </c>
+      <c r="AB16">
+        <v>10.132</v>
+      </c>
+      <c r="AC16">
+        <v>10.308999999999999</v>
+      </c>
+      <c r="AD16">
+        <v>10.518000000000001</v>
+      </c>
+      <c r="AE16">
+        <v>10.68</v>
+      </c>
+      <c r="AF16">
+        <v>10.861000000000001</v>
+      </c>
+      <c r="AG16">
+        <v>11.029</v>
+      </c>
+      <c r="AH16">
+        <v>11.18</v>
+      </c>
+      <c r="AI16">
+        <v>11.329000000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>11.441000000000001</v>
+      </c>
+      <c r="AK16">
+        <v>11.617000000000001</v>
+      </c>
+      <c r="AL16">
+        <v>11.769</v>
+      </c>
+      <c r="AM16">
+        <v>11.884</v>
+      </c>
+      <c r="AN16">
+        <v>12.013999999999999</v>
+      </c>
+      <c r="AO16">
+        <v>12.13</v>
+      </c>
+      <c r="AP16">
+        <v>12.236000000000001</v>
+      </c>
+      <c r="AQ16">
+        <v>12.412000000000001</v>
+      </c>
+      <c r="AR16">
+        <v>12.492000000000001</v>
+      </c>
+      <c r="AS16">
+        <v>12.7</v>
+      </c>
+      <c r="AT16">
+        <v>12.747</v>
+      </c>
+      <c r="AU16">
+        <v>12.827</v>
+      </c>
+      <c r="AV16">
+        <v>12.945</v>
+      </c>
+      <c r="AW16">
+        <v>13.058999999999999</v>
+      </c>
+      <c r="AX16">
+        <v>13.191000000000001</v>
+      </c>
+      <c r="AY16">
+        <v>13.298</v>
+      </c>
+      <c r="AZ16">
+        <v>13.332000000000001</v>
+      </c>
+      <c r="BA16">
+        <v>13.461</v>
+      </c>
+      <c r="BB16">
+        <v>13.592000000000001</v>
+      </c>
+      <c r="BC16">
+        <v>13.554</v>
+      </c>
+      <c r="BD16">
+        <v>13.769</v>
+      </c>
+      <c r="BE16">
+        <v>13.848000000000001</v>
+      </c>
+      <c r="BF16">
+        <v>13.877000000000001</v>
+      </c>
+      <c r="BG16">
+        <v>14.042999999999999</v>
+      </c>
+      <c r="BH16">
+        <v>14.105</v>
+      </c>
+      <c r="BI16">
+        <v>14.159000000000001</v>
+      </c>
+      <c r="BJ16">
+        <v>14.275</v>
+      </c>
+      <c r="BK16">
+        <v>14.358000000000001</v>
+      </c>
+      <c r="BL16">
+        <v>14.367000000000001</v>
+      </c>
+      <c r="BM16">
+        <v>14.481999999999999</v>
+      </c>
+      <c r="BN16">
+        <v>14.618</v>
+      </c>
+      <c r="BO16">
+        <v>14.676</v>
+      </c>
+      <c r="BP16">
+        <v>14.651</v>
+      </c>
+      <c r="BQ16">
+        <v>14.808</v>
+      </c>
+      <c r="BR16">
+        <v>14.721</v>
+      </c>
+      <c r="BS16">
+        <v>14.98</v>
+      </c>
+      <c r="BT16">
+        <v>14.945</v>
+      </c>
+      <c r="BU16">
+        <v>15.055</v>
+      </c>
+      <c r="BV16">
+        <v>15.209</v>
+      </c>
+      <c r="BW16">
+        <v>15.093</v>
+      </c>
+      <c r="BX16">
+        <v>15.356</v>
+      </c>
+      <c r="BY16">
+        <v>15.303000000000001</v>
+      </c>
+      <c r="BZ16">
+        <v>15.385</v>
+      </c>
+      <c r="CA16">
+        <v>15.423</v>
+      </c>
+      <c r="CB16">
+        <v>15.465</v>
+      </c>
     </row>
-    <row r="17" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E17" s="6"/>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
+    <row r="17" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E18" s="8"/>
-      <c r="F18" s="9">
-        <f t="shared" si="1"/>
+    <row r="18" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
-    <row r="19" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E19" s="4">
+    <row r="19" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E20" s="4"/>
+    <row r="20" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
       <c r="F20">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E21" s="4"/>
+    <row r="21" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
       <c r="F21">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E22" s="4"/>
+    <row r="22" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E22" s="11"/>
       <c r="F22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E23" s="4"/>
+    <row r="23" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E23" s="11"/>
       <c r="F23">
         <v>20</v>
       </c>
+      <c r="H23">
+        <v>5.3949999999999996</v>
+      </c>
+      <c r="I23">
+        <v>14.414999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E24" s="4"/>
+    <row r="24" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
       <c r="F24">
         <v>18</v>
       </c>
+      <c r="H24">
+        <v>8.1080000000000005</v>
+      </c>
+      <c r="I24">
+        <v>16.3</v>
+      </c>
     </row>
-    <row r="25" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E25" s="4"/>
+    <row r="25" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E25" s="11"/>
       <c r="F25">
         <v>16</v>
       </c>
+      <c r="G25">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="H25">
+        <v>9.1029999999999998</v>
+      </c>
+      <c r="I25">
+        <v>15.244999999999999</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>22.414999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E26" s="4"/>
+    <row r="26" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E26" s="11"/>
       <c r="F26">
         <v>14</v>
       </c>
+      <c r="G26">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="H26">
+        <v>8.3119999999999994</v>
+      </c>
+      <c r="I26">
+        <v>12.414999999999999</v>
+      </c>
+      <c r="J26">
+        <v>15.52</v>
+      </c>
+      <c r="K26">
+        <v>18.023</v>
+      </c>
     </row>
-    <row r="27" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E27" s="4"/>
+    <row r="27" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E27" s="11"/>
       <c r="F27">
         <v>12</v>
       </c>
@@ -28755,8 +32270,8 @@
         <v>14.3597</v>
       </c>
     </row>
-    <row r="28" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E28" s="4"/>
+    <row r="28" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E28" s="11"/>
       <c r="F28">
         <v>10</v>
       </c>
@@ -28788,8 +32303,8 @@
         <v>16.238399999999999</v>
       </c>
     </row>
-    <row r="29" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E29" s="4"/>
+    <row r="29" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E29" s="11"/>
       <c r="F29">
         <f>F28-2</f>
         <v>8</v>
@@ -28846,336 +32361,395 @@
         <v>18.356100000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E30" s="4"/>
+    <row r="30" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E30" s="11"/>
       <c r="F30">
-        <f t="shared" ref="F30:F32" si="2">F29-2</f>
+        <f t="shared" ref="F30:F32" si="3">F29-2</f>
         <v>6</v>
       </c>
+      <c r="K30">
+        <v>8.6229999999999993</v>
+      </c>
+      <c r="L30">
+        <v>9.4290000000000003</v>
+      </c>
+      <c r="M30">
+        <v>10.081</v>
+      </c>
+      <c r="N30">
+        <v>10.694000000000001</v>
+      </c>
+      <c r="O30">
+        <v>11.377000000000001</v>
+      </c>
+      <c r="P30">
+        <v>11.956</v>
+      </c>
+      <c r="Q30">
+        <v>12.566000000000001</v>
+      </c>
+      <c r="R30">
+        <v>13.101000000000001</v>
+      </c>
+      <c r="S30">
+        <v>13.58</v>
+      </c>
+      <c r="T30">
+        <v>14.135999999999999</v>
+      </c>
+      <c r="U30">
+        <v>14.555</v>
+      </c>
+      <c r="V30">
+        <v>14.983000000000001</v>
+      </c>
+      <c r="W30">
+        <v>15.442</v>
+      </c>
+      <c r="X30">
+        <v>15.917999999999999</v>
+      </c>
+      <c r="Y30">
+        <v>16.437999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>16.460999999999999</v>
+      </c>
+      <c r="AA30">
+        <v>16.829999999999998</v>
+      </c>
     </row>
-    <row r="31" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E31" s="4"/>
+    <row r="31" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E31" s="11"/>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E32" s="4"/>
+    <row r="32" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E32" s="11"/>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E33" s="11">
+    <row r="33" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E33" s="12">
         <v>3</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="7">
         <v>28</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
     </row>
-    <row r="34" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E34" s="6"/>
-      <c r="F34" s="5">
+    <row r="34" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="3">
         <v>26</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E35" s="6"/>
-      <c r="F35" s="5">
+    <row r="35" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="3">
         <v>24</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E36" s="6"/>
-      <c r="F36" s="5">
+    <row r="36" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="3">
         <v>22</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E37" s="6"/>
-      <c r="F37" s="5">
+    <row r="37" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="3">
         <v>20</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E38" s="6"/>
-      <c r="F38" s="5">
+    <row r="38" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+      <c r="F38" s="3">
         <v>18</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E39" s="6"/>
-      <c r="F39" s="5">
+    <row r="39" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+      <c r="F39" s="3">
         <v>16</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E40" s="6"/>
-      <c r="F40" s="5">
+    <row r="40" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+      <c r="F40" s="3">
         <v>14</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
+      <c r="G40" s="3">
+        <v>5.0590000000000002</v>
+      </c>
+      <c r="H40" s="3">
+        <v>11.199</v>
+      </c>
+      <c r="I40" s="3">
+        <v>16.881</v>
+      </c>
+      <c r="J40" s="3">
+        <v>20.678000000000001</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E41" s="6"/>
-      <c r="F41" s="5">
+    <row r="41" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+      <c r="F41" s="3">
         <v>12</v>
       </c>
       <c r="G41">
@@ -29190,38 +32764,38 @@
       <c r="J41">
         <v>16.445399999999999</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E42" s="6"/>
-      <c r="F42" s="5">
+    <row r="42" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+      <c r="F42" s="3">
         <v>10</v>
       </c>
       <c r="G42">
@@ -29242,36 +32816,36 @@
       <c r="L42">
         <v>17.141999999999999</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E43" s="6"/>
-      <c r="F43" s="5">
+    <row r="43" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="3">
         <f>F42-2</f>
         <v>8</v>
       </c>
@@ -29299,419 +32873,433 @@
       <c r="N43">
         <v>17.154499999999999</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E44" s="6"/>
-      <c r="F44" s="5">
-        <f t="shared" ref="F44:F46" si="3">F43-2</f>
+    <row r="44" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+      <c r="F44" s="3">
+        <f t="shared" ref="F44:F46" si="4">F43-2</f>
         <v>6</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
+        <v>12.106</v>
+      </c>
+      <c r="L44" s="3">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="M44" s="3">
+        <v>14.077</v>
+      </c>
+      <c r="N44" s="3">
+        <v>14.803000000000001</v>
+      </c>
+      <c r="O44" s="3">
+        <v>15.786</v>
+      </c>
+      <c r="P44" s="3">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>17.733000000000001</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E45" s="6"/>
-      <c r="F45" s="5">
-        <f t="shared" si="3"/>
+    <row r="45" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+      <c r="F45" s="3">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E46" s="6"/>
-      <c r="F46" s="5">
-        <f t="shared" si="3"/>
+    <row r="46" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+      <c r="F46" s="3">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E47" s="6">
+    <row r="47" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E47" s="9">
         <v>4</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <v>28</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
     </row>
-    <row r="48" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E48" s="6"/>
-      <c r="F48" s="5">
+    <row r="48" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E48" s="9"/>
+      <c r="F48" s="3">
         <v>26</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
     </row>
-    <row r="49" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E49" s="6"/>
-      <c r="F49" s="5">
+    <row r="49" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="3">
         <v>24</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
-      <c r="AJ49" s="7"/>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="7"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
     </row>
-    <row r="50" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E50" s="6"/>
-      <c r="F50" s="5">
+    <row r="50" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E50" s="9"/>
+      <c r="F50" s="3">
         <v>22</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
     </row>
-    <row r="51" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E51" s="6"/>
-      <c r="F51" s="5">
+    <row r="51" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E51" s="9"/>
+      <c r="F51" s="3">
         <v>20</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
     </row>
-    <row r="52" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E52" s="6"/>
-      <c r="F52" s="5">
+    <row r="52" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="F52" s="3">
         <v>18</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
     </row>
-    <row r="53" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E53" s="6"/>
-      <c r="F53" s="5">
+    <row r="53" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="F53" s="3">
         <v>16</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
     </row>
-    <row r="54" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E54" s="6"/>
-      <c r="F54" s="5">
+    <row r="54" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="F54" s="3">
         <v>14</v>
       </c>
       <c r="G54" s="1"/>
@@ -29734,820 +33322,820 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
-      <c r="AH54" s="7"/>
-      <c r="AI54" s="7"/>
-      <c r="AJ54" s="7"/>
-      <c r="AK54" s="7"/>
-      <c r="AL54" s="7"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
     </row>
-    <row r="55" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E55" s="6"/>
-      <c r="F55" s="5">
+    <row r="55" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="3">
         <v>12</v>
       </c>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7"/>
-      <c r="AH55" s="7"/>
-      <c r="AI55" s="7"/>
-      <c r="AJ55" s="7"/>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
     </row>
-    <row r="56" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E56" s="6"/>
-      <c r="F56" s="5">
+    <row r="56" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="F56" s="3">
         <v>10</v>
       </c>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7"/>
-      <c r="AH56" s="7"/>
-      <c r="AI56" s="7"/>
-      <c r="AJ56" s="7"/>
-      <c r="AK56" s="7"/>
-      <c r="AL56" s="7"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
     </row>
-    <row r="57" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E57" s="6"/>
-      <c r="F57" s="5">
+    <row r="57" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+      <c r="F57" s="3">
         <f>F56-2</f>
         <v>8</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E58" s="6"/>
-      <c r="F58" s="5">
-        <f t="shared" ref="F58:F60" si="4">F57-2</f>
+    <row r="58" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="F58" s="3">
+        <f t="shared" ref="F58:F60" si="5">F57-2</f>
         <v>6</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E59" s="6"/>
-      <c r="F59" s="5">
-        <f t="shared" si="4"/>
+    <row r="59" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="3">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E60" s="8"/>
-      <c r="F60" s="9">
-        <f t="shared" si="4"/>
+    <row r="60" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="5">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
-      <c r="AI60" s="9"/>
-      <c r="AJ60" s="9"/>
-      <c r="AK60" s="9"/>
-      <c r="AL60" s="9"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
     </row>
-    <row r="61" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E61" s="4">
+    <row r="61" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E61" s="11">
         <v>5</v>
       </c>
       <c r="F61">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E62" s="4"/>
+    <row r="62" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E62" s="11"/>
       <c r="F62">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E63" s="4"/>
+    <row r="63" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E63" s="11"/>
       <c r="F63">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E64" s="4"/>
+    <row r="64" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
       <c r="F64">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E65" s="4"/>
+    <row r="65" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E65" s="11"/>
       <c r="F65">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E66" s="4"/>
+    <row r="66" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E66" s="11"/>
       <c r="F66">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E67" s="4"/>
+    <row r="67" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E67" s="11"/>
       <c r="F67">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E68" s="4"/>
+    <row r="68" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E68" s="11"/>
       <c r="F68">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E69" s="4"/>
+    <row r="69" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E69" s="11"/>
       <c r="F69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E70" s="4"/>
+    <row r="70" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E70" s="11"/>
       <c r="F70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E71" s="4"/>
+    <row r="71" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E71" s="11"/>
       <c r="F71">
         <f>F70-2</f>
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E72" s="4"/>
+    <row r="72" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E72" s="11"/>
       <c r="F72">
-        <f t="shared" ref="F72:F74" si="5">F71-2</f>
+        <f t="shared" ref="F72:F74" si="6">F71-2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E73" s="4"/>
+    <row r="73" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E73" s="11"/>
       <c r="F73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E74" s="4"/>
+    <row r="74" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E74" s="11"/>
       <c r="F74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E75" s="11">
+    <row r="75" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E75" s="12">
         <v>6</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="7">
         <v>28</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
-      <c r="AI75" s="12"/>
-      <c r="AJ75" s="12"/>
-      <c r="AK75" s="12"/>
-      <c r="AL75" s="12"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
     </row>
-    <row r="76" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E76" s="6"/>
-      <c r="F76" s="5">
+    <row r="76" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E76" s="9"/>
+      <c r="F76" s="3">
         <v>26</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E77" s="6"/>
-      <c r="F77" s="5">
+    <row r="77" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E77" s="9"/>
+      <c r="F77" s="3">
         <v>24</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E78" s="6"/>
-      <c r="F78" s="5">
+    <row r="78" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E78" s="9"/>
+      <c r="F78" s="3">
         <v>22</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E79" s="6"/>
-      <c r="F79" s="5">
+    <row r="79" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E79" s="9"/>
+      <c r="F79" s="3">
         <v>20</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E80" s="6"/>
-      <c r="F80" s="5">
+    <row r="80" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E80" s="9"/>
+      <c r="F80" s="3">
         <v>18</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
-      <c r="AH80" s="5"/>
-      <c r="AI80" s="5"/>
-      <c r="AJ80" s="5"/>
-      <c r="AK80" s="5"/>
-      <c r="AL80" s="5"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E81" s="6"/>
-      <c r="F81" s="5">
+    <row r="81" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E81" s="9"/>
+      <c r="F81" s="3">
         <v>16</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5"/>
-      <c r="AI81" s="5"/>
-      <c r="AJ81" s="5"/>
-      <c r="AK81" s="5"/>
-      <c r="AL81" s="5"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E82" s="6"/>
-      <c r="F82" s="5">
+    <row r="82" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E82" s="9"/>
+      <c r="F82" s="3">
         <v>14</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E83" s="6"/>
-      <c r="F83" s="5">
+    <row r="83" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E83" s="9"/>
+      <c r="F83" s="3">
         <v>12</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E84" s="6"/>
-      <c r="F84" s="5">
+    <row r="84" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E84" s="9"/>
+      <c r="F84" s="3">
         <v>10</v>
       </c>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="5"/>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
-      <c r="AK84" s="5"/>
-      <c r="AL84" s="5"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E85" s="6"/>
-      <c r="F85" s="5">
+    <row r="85" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E85" s="9"/>
+      <c r="F85" s="3">
         <f>F84-2</f>
         <v>8</v>
       </c>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
-      <c r="AK85" s="5"/>
-      <c r="AL85" s="5"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+      <c r="AJ85" s="3"/>
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E86" s="6"/>
-      <c r="F86" s="5">
-        <f t="shared" ref="F86:F88" si="6">F85-2</f>
+    <row r="86" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E86" s="9"/>
+      <c r="F86" s="3">
+        <f t="shared" ref="F86:F88" si="7">F85-2</f>
         <v>6</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5"/>
-      <c r="AF86" s="5"/>
-      <c r="AG86" s="5"/>
-      <c r="AH86" s="5"/>
-      <c r="AI86" s="5"/>
-      <c r="AJ86" s="5"/>
-      <c r="AK86" s="5"/>
-      <c r="AL86" s="5"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="3"/>
+      <c r="AI86" s="3"/>
+      <c r="AJ86" s="3"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E87" s="6"/>
-      <c r="F87" s="5">
-        <f t="shared" si="6"/>
+    <row r="87" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E87" s="9"/>
+      <c r="F87" s="3">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
-      <c r="AH87" s="5"/>
-      <c r="AI87" s="5"/>
-      <c r="AJ87" s="5"/>
-      <c r="AK87" s="5"/>
-      <c r="AL87" s="5"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="5:38" x14ac:dyDescent="0.4">
-      <c r="E88" s="6"/>
-      <c r="F88" s="5">
-        <f t="shared" si="6"/>
+    <row r="88" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E88" s="9"/>
+      <c r="F88" s="3">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="5"/>
-      <c r="AH88" s="5"/>
-      <c r="AI88" s="5"/>
-      <c r="AJ88" s="5"/>
-      <c r="AK88" s="5"/>
-      <c r="AL88" s="5"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="3"/>
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
